--- a/navi-builder/navi.xlsx
+++ b/navi-builder/navi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PENGANGKATAN FASA 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">386150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/JPN/w386150.jsp</t>
   </si>
   <si>
     <t xml:space="preserve">Pembatalan Daftar dan Cetakan Semula Sijil Pengangkatan</t>
@@ -591,7 +594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -615,28 +618,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -685,10 +668,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,10 +681,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,14 +720,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,16 +728,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -778,18 +737,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="24" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -861,20 +815,20 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.4412955465587"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -968,6 +922,7 @@
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -983,6 +938,7 @@
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
@@ -998,6 +954,7 @@
       <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
@@ -1013,6 +970,7 @@
       <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
@@ -1028,6 +986,7 @@
       <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -1036,60 +995,64 @@
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -1105,6 +1068,7 @@
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
@@ -1120,44 +1084,47 @@
       <c r="E16" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="13" t="n">
         <v>384050</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="13" t="n">
         <v>384060</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
@@ -1167,12 +1134,13 @@
       <c r="E19" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1182,34 +1150,38 @@
       <c r="E20" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="11" t="s">
         <v>51</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>10</v>
@@ -1219,14 +1191,14 @@
       <c r="A23" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="C23" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>10</v>
@@ -1236,12 +1208,12 @@
       <c r="A24" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12" t="s">
-        <v>55</v>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>10</v>
@@ -1251,12 +1223,12 @@
       <c r="A25" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12" t="s">
-        <v>57</v>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>10</v>
@@ -1266,12 +1238,12 @@
       <c r="A26" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12" t="s">
-        <v>59</v>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -1281,12 +1253,12 @@
       <c r="A27" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12" t="s">
-        <v>61</v>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>10</v>
@@ -1296,12 +1268,12 @@
       <c r="A28" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12" t="s">
-        <v>63</v>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>10</v>
@@ -1311,12 +1283,12 @@
       <c r="A29" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12" t="s">
-        <v>65</v>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>10</v>
@@ -1326,12 +1298,12 @@
       <c r="A30" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="12" t="s">
-        <v>67</v>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>10</v>
@@ -1341,12 +1313,12 @@
       <c r="A31" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>10</v>
@@ -1381,18 +1353,18 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1438,16 +1410,16 @@
       <c r="A4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>71</v>
+      <c r="B4" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="17" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" s="13" t="n">
         <v>415004</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1458,62 +1430,62 @@
       <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" s="13" t="n">
         <v>415006</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="n">
         <v>415008</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>75</v>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="D7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1521,14 +1493,14 @@
       <c r="A9" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13" t="n">
         <v>415002</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1536,14 +1508,14 @@
       <c r="A10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="17" t="n">
+        <v>81</v>
+      </c>
+      <c r="D10" s="13" t="n">
         <v>415010</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1551,47 +1523,47 @@
       <c r="A11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>81</v>
+      <c r="B11" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="18" t="s">
         <v>83</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="18" t="s">
         <v>85</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1621,24 +1593,24 @@
   </sheetPr>
   <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.6477732793522"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1647,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -4730,16 +4702,16 @@
       <c r="A4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4750,14 +4722,14 @@
       <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="D5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="22" t="n">
         <v>11000000</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4768,350 +4740,372 @@
       <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="D8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="22" t="n">
         <v>11000000</v>
       </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="D11" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="22" t="n">
         <v>11000000</v>
       </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="D12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="22" t="n">
         <v>11000000</v>
       </c>
+      <c r="F12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="D15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="22" t="n">
         <v>11100000</v>
       </c>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="D16" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="22" t="n">
         <v>11000000</v>
       </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="D17" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="22" t="n">
         <v>11000000</v>
       </c>
+      <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>125</v>
       </c>
+      <c r="E20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="29" t="n">
+      <c r="D21" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="25" t="n">
         <v>11000000</v>
       </c>
+      <c r="F21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="D22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="16" t="n">
         <v>11000000</v>
       </c>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="B23" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="D23" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="16" t="n">
         <v>11000000</v>
       </c>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="B24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="D24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="16" t="n">
         <v>11000000</v>
       </c>
+      <c r="F24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="D25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="16" t="n">
         <v>11000000</v>
       </c>
+      <c r="F25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="18" t="n">
+      <c r="D26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="16" t="n">
         <v>11000000</v>
       </c>
+      <c r="F26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="D27" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="16" t="n">
         <v>11000000</v>
       </c>
+      <c r="F27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="D28" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="0"/>

--- a/navi-builder/navi.xlsx
+++ b/navi-builder/navi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PENGANGKATAN FASA 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -61,16 +61,10 @@
     <t xml:space="preserve">11000000</t>
   </si>
   <si>
-    <t xml:space="preserve">https://xmail-01.ximplify.com/Default.aspx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pendaftaran Pengangkatan Mahkamah</t>
   </si>
   <si>
     <t xml:space="preserve">382050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://192.168.0.240:8080/JPN/COOP.T3861501.TC.html</t>
   </si>
   <si>
     <t xml:space="preserve">Pengesahan Pendaftaran Pengangkatan Mahkamah</t>
@@ -178,9 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">386150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/JPN/w386150.jsp</t>
   </si>
   <si>
     <t xml:space="preserve">Pembatalan Daftar dan Cetakan Semula Sijil Pengangkatan</t>
@@ -815,20 +806,20 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -886,26 +877,20 @@
       <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,13 +899,13 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -930,10 +915,10 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -946,13 +931,13 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="0"/>
     </row>
@@ -962,13 +947,13 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -978,10 +963,10 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -993,13 +978,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
@@ -1012,10 +997,10 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -1028,13 +1013,13 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -1044,13 +1029,13 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -1060,13 +1045,13 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -1076,13 +1061,13 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -1091,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="13" t="n">
         <v>384050</v>
@@ -1110,13 +1095,13 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="13" t="n">
         <v>384060</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0"/>
     </row>
@@ -1126,13 +1111,13 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="0"/>
     </row>
@@ -1142,13 +1127,13 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" s="0"/>
     </row>
@@ -1157,19 +1142,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,10 +1160,10 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>10</v>
@@ -1192,13 +1174,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>10</v>
@@ -1210,10 +1192,10 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>10</v>
@@ -1225,10 +1207,10 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>10</v>
@@ -1240,10 +1222,10 @@
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -1255,10 +1237,10 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>10</v>
@@ -1270,10 +1252,10 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>10</v>
@@ -1285,10 +1267,10 @@
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>10</v>
@@ -1300,10 +1282,10 @@
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>10</v>
@@ -1315,10 +1297,10 @@
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>10</v>
@@ -1332,10 +1314,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B31"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://xmail-01.ximplify.com/Default.aspx"/>
-    <hyperlink ref="F5" r:id="rId2" display="http://192.168.0.240:8080/JPN/COOP.T3861501.TC.html"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="5" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1354,17 +1332,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1406,42 +1384,37 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="13" t="n">
         <v>415004</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="13" t="n">
         <v>415006</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,13 +1423,13 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>415008</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,13 +1437,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="16"/>
     </row>
@@ -1480,13 +1453,13 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,13 +1468,13 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13" t="n">
         <v>415002</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,13 +1483,13 @@
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="13" t="n">
         <v>415010</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,16 +1497,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,13 +1515,13 @@
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,13 +1530,13 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1545,6 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B13"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://xmail-01.ximplify.com/Default.aspx"/>
-    <hyperlink ref="F5" r:id="rId2" display="http://192.168.0.240:8080/JPN/COOP.T3861501.TC.html"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1593,24 +1562,24 @@
   </sheetPr>
   <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="8.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1619,10 +1588,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -4703,37 +4672,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" s="22" t="n">
         <v>11000000</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,13 +4705,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -4758,13 +4721,13 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -4774,10 +4737,10 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>11000000</v>
@@ -4790,13 +4753,13 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -4806,13 +4769,13 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -4822,10 +4785,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="22" t="n">
         <v>11000000</v>
@@ -4838,10 +4801,10 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" s="22" t="n">
         <v>11000000</v>
@@ -4854,13 +4817,13 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -4870,13 +4833,13 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -4886,10 +4849,10 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="22" t="n">
         <v>11100000</v>
@@ -4902,10 +4865,10 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="22" t="n">
         <v>11000000</v>
@@ -4918,10 +4881,10 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E17" s="22" t="n">
         <v>11000000</v>
@@ -4934,13 +4897,13 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="0"/>
     </row>
@@ -4950,13 +4913,13 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="0"/>
     </row>
@@ -4966,13 +4929,13 @@
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F20" s="0"/>
     </row>
@@ -4982,10 +4945,10 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E21" s="25" t="n">
         <v>11000000</v>
@@ -4997,13 +4960,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" s="16" t="n">
         <v>11000000</v>
@@ -5015,13 +4978,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E23" s="16" t="n">
         <v>11000000</v>
@@ -5033,13 +4996,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E24" s="16" t="n">
         <v>11000000</v>
@@ -5052,10 +5015,10 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E25" s="16" t="n">
         <v>11000000</v>
@@ -5068,10 +5031,10 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E26" s="16" t="n">
         <v>11000000</v>
@@ -5084,10 +5047,10 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E27" s="16" t="n">
         <v>11000000</v>
@@ -5100,13 +5063,13 @@
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0"/>
     </row>
@@ -5116,10 +5079,6 @@
     <mergeCell ref="B4:B21"/>
     <mergeCell ref="B24:B28"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://xmail-01.ximplify.com/Default.aspx"/>
-    <hyperlink ref="F5" r:id="rId2" display="http://192.168.0.240:8080/JPN/COOP.T3861501.TC.html"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
